--- a/plan/glチーム制作ガントチャー.xlsx
+++ b/plan/glチーム制作ガントチャー.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="75">
   <si>
     <t>要素</t>
     <rPh sb="0" eb="2">
@@ -519,6 +519,13 @@
     <t>河野</t>
     <rPh sb="0" eb="2">
       <t>コオノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神山</t>
+    <rPh sb="0" eb="2">
+      <t>カミヤマ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1148,8 +1155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:BY121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -5775,7 +5782,9 @@
       <c r="B53" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C53" s="24"/>
+      <c r="C53" s="24" t="s">
+        <v>74</v>
+      </c>
       <c r="D53" s="7">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/plan/glチーム制作ガントチャー.xlsx
+++ b/plan/glチーム制作ガントチャー.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="77">
   <si>
     <t>要素</t>
     <rPh sb="0" eb="2">
@@ -536,12 +536,29 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>プロトタイプ版調整</t>
+    <rPh sb="6" eb="7">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全員</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -591,8 +608,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -647,6 +672,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -657,12 +687,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -831,9 +864,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="良い" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1155,8 +1192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:BY121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C58" sqref="C57:C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1860,7 +1897,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="7">
-        <f t="shared" ref="D6:D64" si="0">SUM(F6:BY6)</f>
+        <f t="shared" ref="D6:D65" si="0">SUM(F6:BY6)</f>
         <v>3</v>
       </c>
       <c r="E6" s="7"/>
@@ -6588,12 +6625,22 @@
       <c r="BX64" s="53"/>
       <c r="BY64" s="53"/>
     </row>
-    <row r="65" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C65" s="24"/>
-      <c r="L65"/>
-      <c r="P65" s="17"/>
-    </row>
-    <row r="66" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:21" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="D65" s="53">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="U65" s="56">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="24"/>
       <c r="D66" s="12"/>
       <c r="E66" s="12"/>
@@ -6610,7 +6657,7 @@
       <c r="T66" s="12"/>
       <c r="U66" s="12"/>
     </row>
-    <row r="67" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="24"/>
       <c r="D67" s="12"/>
       <c r="E67" s="12"/>
@@ -6626,7 +6673,7 @@
       <c r="T67" s="12"/>
       <c r="U67" s="12"/>
     </row>
-    <row r="68" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="24"/>
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
@@ -6642,7 +6689,7 @@
       <c r="T68" s="12"/>
       <c r="U68" s="12"/>
     </row>
-    <row r="69" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="24"/>
       <c r="D69" s="12"/>
       <c r="E69" s="12"/>
@@ -6658,7 +6705,7 @@
       <c r="T69" s="12"/>
       <c r="U69" s="12"/>
     </row>
-    <row r="70" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="24"/>
       <c r="D70" s="12"/>
       <c r="E70" s="12"/>
@@ -6674,7 +6721,7 @@
       <c r="T70" s="12"/>
       <c r="U70" s="12"/>
     </row>
-    <row r="71" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="24"/>
       <c r="D71" s="12"/>
       <c r="E71" s="12"/>
@@ -6690,7 +6737,7 @@
       <c r="T71" s="12"/>
       <c r="U71" s="12"/>
     </row>
-    <row r="72" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="24"/>
       <c r="D72" s="12"/>
       <c r="E72" s="12"/>
@@ -6706,7 +6753,7 @@
       <c r="T72" s="12"/>
       <c r="U72" s="12"/>
     </row>
-    <row r="73" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="24"/>
       <c r="D73" s="12"/>
       <c r="E73" s="12"/>
@@ -6722,7 +6769,7 @@
       <c r="T73" s="12"/>
       <c r="U73" s="12"/>
     </row>
-    <row r="74" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="24"/>
       <c r="D74" s="12"/>
       <c r="E74" s="12"/>
@@ -6738,7 +6785,7 @@
       <c r="T74" s="12"/>
       <c r="U74" s="12"/>
     </row>
-    <row r="75" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="24"/>
       <c r="D75" s="12"/>
       <c r="E75" s="12"/>
@@ -6754,7 +6801,7 @@
       <c r="T75" s="12"/>
       <c r="U75" s="12"/>
     </row>
-    <row r="76" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="24"/>
       <c r="D76" s="12"/>
       <c r="E76" s="12"/>
@@ -6770,7 +6817,7 @@
       <c r="T76" s="12"/>
       <c r="U76" s="12"/>
     </row>
-    <row r="77" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="24"/>
       <c r="D77" s="12"/>
       <c r="E77" s="12"/>
@@ -6786,7 +6833,7 @@
       <c r="T77" s="12"/>
       <c r="U77" s="12"/>
     </row>
-    <row r="78" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C78" s="24"/>
       <c r="D78" s="12"/>
       <c r="E78" s="12"/>
@@ -6802,7 +6849,7 @@
       <c r="T78" s="12"/>
       <c r="U78" s="12"/>
     </row>
-    <row r="79" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C79" s="24"/>
       <c r="D79" s="12"/>
       <c r="E79" s="12"/>
@@ -6818,7 +6865,7 @@
       <c r="T79" s="12"/>
       <c r="U79" s="12"/>
     </row>
-    <row r="80" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="24"/>
       <c r="D80" s="12"/>
       <c r="E80" s="12"/>

--- a/plan/glチーム制作ガントチャー.xlsx
+++ b/plan/glチーム制作ガントチャー.xlsx
@@ -1192,8 +1192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:BY121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C58" sqref="C57:C58"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -6625,7 +6625,7 @@
       <c r="BX64" s="53"/>
       <c r="BY64" s="53"/>
     </row>
-    <row r="65" spans="2:21" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:24" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="51" t="s">
         <v>75</v>
       </c>
@@ -6634,13 +6634,16 @@
       </c>
       <c r="D65" s="53">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="U65" s="56">
         <v>8</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="X65" s="56">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="24"/>
       <c r="D66" s="12"/>
       <c r="E66" s="12"/>
@@ -6657,7 +6660,7 @@
       <c r="T66" s="12"/>
       <c r="U66" s="12"/>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="24"/>
       <c r="D67" s="12"/>
       <c r="E67" s="12"/>
@@ -6673,7 +6676,7 @@
       <c r="T67" s="12"/>
       <c r="U67" s="12"/>
     </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="24"/>
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
@@ -6689,7 +6692,7 @@
       <c r="T68" s="12"/>
       <c r="U68" s="12"/>
     </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="24"/>
       <c r="D69" s="12"/>
       <c r="E69" s="12"/>
@@ -6705,7 +6708,7 @@
       <c r="T69" s="12"/>
       <c r="U69" s="12"/>
     </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="24"/>
       <c r="D70" s="12"/>
       <c r="E70" s="12"/>
@@ -6721,7 +6724,7 @@
       <c r="T70" s="12"/>
       <c r="U70" s="12"/>
     </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="24"/>
       <c r="D71" s="12"/>
       <c r="E71" s="12"/>
@@ -6737,7 +6740,7 @@
       <c r="T71" s="12"/>
       <c r="U71" s="12"/>
     </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="24"/>
       <c r="D72" s="12"/>
       <c r="E72" s="12"/>
@@ -6753,7 +6756,7 @@
       <c r="T72" s="12"/>
       <c r="U72" s="12"/>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="24"/>
       <c r="D73" s="12"/>
       <c r="E73" s="12"/>
@@ -6769,7 +6772,7 @@
       <c r="T73" s="12"/>
       <c r="U73" s="12"/>
     </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="24"/>
       <c r="D74" s="12"/>
       <c r="E74" s="12"/>
@@ -6785,7 +6788,7 @@
       <c r="T74" s="12"/>
       <c r="U74" s="12"/>
     </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="24"/>
       <c r="D75" s="12"/>
       <c r="E75" s="12"/>
@@ -6801,7 +6804,7 @@
       <c r="T75" s="12"/>
       <c r="U75" s="12"/>
     </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="24"/>
       <c r="D76" s="12"/>
       <c r="E76" s="12"/>
@@ -6817,7 +6820,7 @@
       <c r="T76" s="12"/>
       <c r="U76" s="12"/>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="24"/>
       <c r="D77" s="12"/>
       <c r="E77" s="12"/>
@@ -6833,7 +6836,7 @@
       <c r="T77" s="12"/>
       <c r="U77" s="12"/>
     </row>
-    <row r="78" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C78" s="24"/>
       <c r="D78" s="12"/>
       <c r="E78" s="12"/>
@@ -6849,7 +6852,7 @@
       <c r="T78" s="12"/>
       <c r="U78" s="12"/>
     </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C79" s="24"/>
       <c r="D79" s="12"/>
       <c r="E79" s="12"/>
@@ -6865,7 +6868,7 @@
       <c r="T79" s="12"/>
       <c r="U79" s="12"/>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="24"/>
       <c r="D80" s="12"/>
       <c r="E80" s="12"/>
